--- a/app/NERC_projects.xlsx
+++ b/app/NERC_projects.xlsx
@@ -1067,11 +1067,17 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1102,11 +1108,17 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1137,11 +1149,17 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1172,11 +1190,17 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1207,11 +1231,17 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1242,11 +1272,17 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="23">
